--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-561246.9794861886</v>
+        <v>-563134.5610025899</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545030.0257174813</v>
+        <v>177787.4064905376</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13949504.12430453</v>
+        <v>13949504.12430452</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>310.0032339309201</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>197.8753414835261</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>101.7177065691262</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>165.093399059504</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>224.1857021155893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>22.11041309544154</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>162.9111220719551</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>383.3942956076879</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>186.250717003031</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.1024007326839</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.93037007226</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.59458547084214</v>
+        <v>177.0231396865349</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238295</v>
+        <v>1.464499784176792e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>89.13174901955482</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>246.837992511267</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896917</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>124.8388016343877</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>186.4736282618089</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>108.0653070189125</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>103.7702737610498</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>123.151720405126</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,13 +2770,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>96.83234026623458</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965499</v>
+        <v>93.4122163896552</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180118</v>
+        <v>91.23070601801201</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348202</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897876</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571461</v>
+        <v>55.21598883571484</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523542</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952706</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080336</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>157.4961081560218</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.99894609866487</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898629</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789464</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
         <v>959.5129866402885</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1735.440571214345</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>1735.440571214345</v>
       </c>
       <c r="Y2" t="n">
-        <v>1328.4755035807</v>
+        <v>1345.301239238533</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2299.181904711872</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2045.420119349963</v>
+        <v>2075.886732147294</v>
       </c>
       <c r="V5" t="n">
-        <v>2045.420119349963</v>
+        <v>2075.886732147294</v>
       </c>
       <c r="W5" t="n">
-        <v>2045.420119349963</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X5" t="n">
-        <v>2045.420119349963</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415.4256366790474</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W7" t="n">
-        <v>415.4256366790474</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="X7" t="n">
-        <v>415.4256366790474</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.4256366790474</v>
+        <v>76.27673242182055</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>1606.946621408919</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>852.1958518702629</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>441.2099470806554</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>450.2477713451374</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>450.2477713451374</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W10" t="n">
-        <v>450.2477713451374</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>450.2477713451374</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.2477713451374</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5033,58 +5033,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>263.5382936126482</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>493.5013994809973</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1261.869545873459</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N12" t="n">
-        <v>1606.390201511077</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O12" t="n">
-        <v>2275.853962813736</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352014</v>
+        <v>874.9271131227903</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150536</v>
+        <v>874.9271131227903</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170363</v>
+        <v>646.9375622247728</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8250614170363</v>
+        <v>426.1449830812427</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>270.0269952192064</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028587</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M15" t="n">
-        <v>417.5524109899877</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N15" t="n">
-        <v>1221.963989254138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O15" t="n">
-        <v>1891.427750556798</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2411.728372292545</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.6737565393107</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>634.6737565393107</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>484.557117126975</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W16" t="n">
-        <v>1044.311772267568</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X16" t="n">
-        <v>816.3222213695504</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.3222213695504</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>301.3054488062375</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>301.3054488062375</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527474</v>
+        <v>1069.673595198699</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>1874.08517346285</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419557</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.6648329070712</v>
+        <v>392.2530740188874</v>
       </c>
       <c r="C19" t="n">
-        <v>545.6648329070712</v>
+        <v>223.3168910909806</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947354</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227916</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="X19" t="n">
-        <v>766.4574120506013</v>
+        <v>392.2530740188874</v>
       </c>
       <c r="Y19" t="n">
-        <v>545.6648329070712</v>
+        <v>392.2530740188874</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>988.7065213774117</v>
+        <v>352.4535582568374</v>
       </c>
       <c r="C22" t="n">
-        <v>819.7703384495048</v>
+        <v>352.4535582568374</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>352.4535582568374</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>352.4535582568374</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>352.4535582568374</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>754.8946022306073</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.499100520942</v>
+        <v>754.8946022306073</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.7065213774117</v>
+        <v>534.1020230870772</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,28 +5972,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,31 +6005,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>186.9737921229055</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>186.9737921229055</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899876</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.963989254138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.427750556798</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2411.728372292545</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>688.5786845598166</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2111.570778050962</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>577.1966583249754</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6476,10 +6476,10 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.7457372049837</v>
+        <v>452.6741376354908</v>
       </c>
       <c r="C31" t="n">
-        <v>546.570419558448</v>
+        <v>339.4988199889547</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274833</v>
+        <v>245.1430458579899</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264613</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264613</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276529</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569673</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864675</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933508</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667518</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962064</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286026</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056077</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662003</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737487</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818974</v>
+        <v>902.6804289818944</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652512</v>
+        <v>743.5934510465188</v>
       </c>
       <c r="Y31" t="n">
-        <v>659.7457372049837</v>
+        <v>578.5617371843596</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>661.6060969157201</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>352.8380350170345</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1375.970136384494</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,7 +7333,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>298.4322124465793</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>618.7675319762811</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083204</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>222.1670466233172</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>376.4904526174739</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,7 +9720,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>270.1335550312996</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>341.8019767357262</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11385,19 +11385,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.2373947110952</v>
+        <v>2.808840495402393</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>57.30221362701435</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>5.299650812560969</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.7766713838246</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>39.23602712722823</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>40.55016599929981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>62.72329470232781</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,7 +24184,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>56.68025977681129</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338548</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>128.8773151228026</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533799</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437388</v>
+        <v>90.21779139437409</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897897</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>13.01029060445823</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.38245062487256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26320,25 +26320,25 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688545</v>
       </c>
       <c r="F2" t="n">
         <v>195514.5298688545</v>
       </c>
       <c r="G2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="H2" t="n">
         <v>195514.5298688545</v>
       </c>
       <c r="I2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="J2" t="n">
         <v>195514.5298688544</v>
       </c>
       <c r="K2" t="n">
-        <v>203411.0686726353</v>
+        <v>203411.0686726354</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660711</v>
@@ -26350,10 +26350,10 @@
         <v>205260.4424660711</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284589</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086662</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284591</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758488</v>
+        <v>787.7936905759311</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758565</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759168</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477248</v>
+        <v>18952.41620477243</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022284</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606625.6539925024</v>
+        <v>-606625.6539925021</v>
       </c>
       <c r="C6" t="n">
-        <v>-16657.77477795779</v>
+        <v>-16657.77477795773</v>
       </c>
       <c r="D6" t="n">
-        <v>-16657.77477795773</v>
+        <v>-16657.77477795772</v>
       </c>
       <c r="E6" t="n">
-        <v>-422420.6262473343</v>
+        <v>-422518.0853733062</v>
       </c>
       <c r="F6" t="n">
-        <v>102739.410229562</v>
+        <v>102641.9511035898</v>
       </c>
       <c r="G6" t="n">
-        <v>102739.410229562</v>
+        <v>102641.9511035898</v>
       </c>
       <c r="H6" t="n">
-        <v>102739.410229562</v>
+        <v>102641.9511035898</v>
       </c>
       <c r="I6" t="n">
-        <v>102739.410229562</v>
+        <v>102641.9511035897</v>
       </c>
       <c r="J6" t="n">
-        <v>-73683.80896303101</v>
+        <v>-73781.26808900321</v>
       </c>
       <c r="K6" t="n">
-        <v>43667.83863479413</v>
+        <v>43649.34489686006</v>
       </c>
       <c r="L6" t="n">
-        <v>73995.84891328275</v>
+        <v>73995.84891328259</v>
       </c>
       <c r="M6" t="n">
-        <v>-50462.25951968784</v>
+        <v>-50462.25951968769</v>
       </c>
       <c r="N6" t="n">
-        <v>84338.7557141494</v>
+        <v>84338.75571414939</v>
       </c>
       <c r="O6" t="n">
-        <v>84338.75571414945</v>
+        <v>84338.75571414936</v>
       </c>
       <c r="P6" t="n">
-        <v>40176.15041130355</v>
+        <v>40176.15041130368</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108328</v>
+        <v>12.92863350108351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.23773478649287</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>188.3625971725274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>65.52911452950163</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>51.35492129815378</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>27.03846539270003</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>126.5050599227708</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>123.6118762646359</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>30.38987441310707</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>64.97345050525834</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>11.17947350929387</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>28.9878097027507</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.505355839981348e-12</v>
+        <v>-1.464499784176792e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31118,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>96.64798629870882</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,16 +32005,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32078,34 +32078,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>47.93166030412434</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.8894692628929</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>79.52605786678203</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>32.39888063626327</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,16 +32479,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O20" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>91.40992532890395</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>143.8894692628929</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33026,7 +33026,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,25 +33035,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>23.85840434223323</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,16 +33190,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>183.8504064050094</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33503,31 +33503,31 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>211.180140938634</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33743,16 +33743,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,16 +33901,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>174.5554583423439</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,25 +34208,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,16 +34375,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>144.0389839293311</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>80.03301270129893</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>281.1363475243157</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.5554583423439</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.9849829127205</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>206.1498559050016</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>216.8872418618702</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>234.3564186954556</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>90.6633340026461</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.9849829127205</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>208.3467655678402</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>507.421436232991</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412289</v>
+        <v>67.71102679412267</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075299</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491603</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043212</v>
+        <v>94.4289566004319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>443.466106462219</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>131.5791752514255</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>425.821533174629</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>203.247596955852</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>467.6100137573127</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
